--- a/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1248,7 +1249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,17 +1260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1279,14 +1300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.75</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3039</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1295,13 +1338,1105 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3993</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0888</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0357</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7905</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5330</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5109</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4204</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>2.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2367,7 +2368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2378,17 +2379,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2398,14 +2419,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.66</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1194</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2414,14 +2457,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.75</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2430,13 +2495,667 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8023</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3814</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000367</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002061</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>2.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3070,7 +3071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3081,17 +3082,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3101,14 +3122,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.46</v>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5641</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3117,14 +3160,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.66</v>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3133,14 +3198,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.75</v>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3149,13 +3236,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.94</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>1.78</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>11.46</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>13.66</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>5.75</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.94</v>
       </c>
     </row>
@@ -566,6 +583,668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1282</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技前沿6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,7 +1718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1741,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2859,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3371,7 +4050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002436-兴森科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>3.41</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>1.78</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>11.46</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>13.66</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>5.75</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.94</v>
       </c>
     </row>
@@ -583,6 +600,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0565</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0411</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6338</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3786</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0956</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1244,7 +1849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1718,7 +2323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2420,7 +3025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3538,7 +4143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4050,7 +4655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
